--- a/распереление дат тестирование/orders-test.xlsx
+++ b/распереление дат тестирование/orders-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\jupyterProjects\tom's work\распереление дат тестирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriali/JupyterProjects/tom's work/распереление дат тестирование/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066378B0-BC2B-42C3-8869-66958941D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D5A97-FB39-394E-86A8-C6C07F54AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3757" yWindow="1152" windowWidth="12283" windowHeight="11770" xr2:uid="{D9271FE2-D2FD-4CAD-8CDB-E1841561EF69}"/>
+    <workbookView xWindow="11260" yWindow="1500" windowWidth="12280" windowHeight="11780" xr2:uid="{D9271FE2-D2FD-4CAD-8CDB-E1841561EF69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>КССС мат</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Пункт отгрузки</t>
   </si>
@@ -47,6 +44,12 @@
   </si>
   <si>
     <t>ВНП</t>
+  </si>
+  <si>
+    <t>ПНОС</t>
+  </si>
+  <si>
+    <t>Код КССС</t>
   </si>
 </sst>
 </file>
@@ -425,38 +428,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9969958C-8723-4DC3-AA54-AADC708B9542}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1779443</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>8</v>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
